--- a/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
+++ b/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\ESUfRaLCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AZ\elec\ESUfRaLCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D45BA-BAED-45ED-ABE9-9BA92A98D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EFFAA9-0D6F-4C03-8BBF-6F58733EC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
+    <workbookView xWindow="3510" yWindow="1620" windowWidth="18900" windowHeight="16380" activeTab="1" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>hydro dispatch</t>
+  </si>
+  <si>
+    <t>hard coal w ccs es</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w ccs es</t>
+  </si>
+  <si>
+    <t>hard coal w ccs</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w ccs</t>
+  </si>
+  <si>
+    <t>biomass w ccs</t>
+  </si>
+  <si>
+    <t>lignite w ccs</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -244,10 +265,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,20 +584,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1D3264-BEAA-43D0-A5CC-06C5D3B72BE0}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -591,47 +619,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -741,10 +769,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,11 +810,11 @@
         <v>30</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B21" si="0">IF(A3="","",CONCATENATE(A3," es"))</f>
+        <f t="shared" ref="B3:B25" si="0">IF(A3="","",CONCATENATE(A3," es"))</f>
         <v>onshore wind es</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">IF(A3="","",CONCATENATE(A3," power plants"))</f>
+        <f t="shared" ref="C3:C70" si="1">IF(A3="","",CONCATENATE(A3," power plants"))</f>
         <v>onshore wind power plants</v>
       </c>
     </row>
@@ -844,68 +872,76 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>hydrogen combustion turbine es</v>
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>hydrogen combustion turbine power plants</v>
+        <v>hard coal w ccs power plants</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>natural gas combined cycle w ccs power plants</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>biomass w ccs power plants</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>lignite w ccs power plants</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>hydrogen combustion turbine es</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>hydrogen combustion turbine power plants</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>hydrogen combined cycle es</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>hydrogen combined cycle power plants</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,24 +1025,40 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1260,31 +1312,31 @@
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C80" si="2">IF(A67="","",CONCATENATE(A67," power plants"))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C71:C84" si="2">IF(A71="","",CONCATENATE(A71," power plants"))</f>
         <v/>
       </c>
     </row>
@@ -1338,6 +1390,30 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
+++ b/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AZ\elec\ESUfRaLCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\ESUfRaLCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EFFAA9-0D6F-4C03-8BBF-6F58733EC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865FA8B-2E99-4F62-ADD7-E0855899DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1620" windowWidth="18900" windowHeight="16380" activeTab="1" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>lignite w ccs</t>
-  </si>
-  <si>
-    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -265,11 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1D3264-BEAA-43D0-A5CC-06C5D3B72BE0}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A30"/>
@@ -592,18 +588,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -611,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -619,47 +609,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
